--- a/src/main/resources/cross_og_netti.xlsx
+++ b/src/main/resources/cross_og_netti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno.sharepoint.com/sites/digihot/Shared Documents/Hugin/Deler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oles/repos/hm-delbestilling-api/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74A3482-481A-4BBE-BE1D-6877E6D0AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E70138-3793-7542-89EF-522C5FED9C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93017409-3C97-4F9D-B6EF-863303C7C1B9}"/>
+    <workbookView xWindow="-8560" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{93017409-3C97-4F9D-B6EF-863303C7C1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross 6 &amp; 5XL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="186">
   <si>
     <t>Deler til kommunale oppdrag Cross 6</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Cross 6 sb35 K (278331)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>004392</t>
@@ -607,7 +604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,22 +1142,22 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
       <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="21.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="17" width="21.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" style="4" customWidth="1"/>
-    <col min="20" max="21" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="21.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="17" width="21.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" style="4" customWidth="1"/>
+    <col min="20" max="21" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1175,7 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1193,7 +1190,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
@@ -1293,3007 +1290,2647 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="10" customFormat="1">
+    <row r="5" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="J5" s="7">
         <v>220485</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="J7" s="8">
         <v>181134</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="8" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="J8" s="7">
         <v>220485</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="J10" s="8">
         <v>181134</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="J11" s="7">
         <v>220485</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="J13" s="8">
         <v>181134</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="J14" s="7">
         <v>220485</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="17" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="J16" s="8">
         <v>181134</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="10" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="J17" s="7">
         <v>220485</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="J19" s="8">
         <v>181134</v>
       </c>
       <c r="K19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="20" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="J20" s="7">
         <v>220485</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="J22" s="8">
         <v>181134</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="10" customFormat="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="J23" s="7">
         <v>220485</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="17" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="J25" s="8">
         <v>181134</v>
       </c>
       <c r="K25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="26" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="J26" s="7">
         <v>220485</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="17" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="J28" s="8">
         <v>181134</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="10" customFormat="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="I29" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="J29" s="7">
         <v>220485</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="J31" s="8">
         <v>181134</v>
       </c>
       <c r="K31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="32" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="J32" s="7">
         <v>220485</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="17" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="J34" s="8">
         <v>181134</v>
       </c>
       <c r="K34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J35" s="8">
         <v>220485</v>
       </c>
       <c r="K35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" s="8" t="s">
+      <c r="P35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" customFormat="1">
-      <c r="A36" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J36" s="8">
         <v>220485</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="10" customFormat="1">
-      <c r="A37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="J37" s="7">
         <v>220485</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J39" s="8">
         <v>181134</v>
       </c>
       <c r="K39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M39" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="40" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="J40" s="7">
         <v>220485</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J42" s="8">
         <v>181134</v>
       </c>
       <c r="K42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M42" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" customFormat="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J43" s="8">
         <v>220485</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="P43" s="8" t="s">
+    </row>
+    <row r="44" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" customFormat="1">
-      <c r="A44" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J44" s="8">
         <v>220485</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="10" customFormat="1">
-      <c r="A45" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="J45" s="7">
         <v>220485</v>
       </c>
       <c r="K45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M45" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P45" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+    </row>
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="13" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J47" s="8">
         <v>181134</v>
       </c>
       <c r="K47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M47" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="48" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="J48" s="7">
         <v>220485</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="13" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J50" s="8">
         <v>181134</v>
       </c>
       <c r="K50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M50" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" customFormat="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J51" s="8">
         <v>220485</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="P51" s="8" t="s">
+    </row>
+    <row r="52" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" customFormat="1">
-      <c r="A52" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J52" s="8">
         <v>220485</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P52" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="10" customFormat="1">
-      <c r="A53" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="J53" s="7">
         <v>220485</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P53" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+    </row>
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="13" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J55" s="8">
         <v>181134</v>
       </c>
       <c r="K55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M55" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="P55" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="10" customFormat="1">
+    </row>
+    <row r="56" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="J56" s="7">
         <v>220485</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="13" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J58" s="8">
         <v>181134</v>
       </c>
       <c r="K58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="M58" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" customFormat="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H59" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J59" s="8">
         <v>220485</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P59" s="8" t="s">
+    </row>
+    <row r="60" spans="1:16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" customFormat="1">
-      <c r="A60" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J60" s="8">
         <v>220485</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="P60" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H61" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J61" s="8">
         <v>220485</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J62" s="8">
         <v>220485</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="P62" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J63" s="8">
         <v>220485</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P63" s="8" t="s">
+    </row>
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J64" s="8">
         <v>220485</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="3:17" ht="16.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -4307,7 +3944,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="3:17" ht="16.5">
+    <row r="78" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -4321,7 +3958,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="3:17" ht="16.5">
+    <row r="79" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -4334,7 +3971,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
     </row>
-    <row r="80" spans="3:17" ht="16.5">
+    <row r="80" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -4347,7 +3984,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
     </row>
-    <row r="81" spans="3:17" ht="16.5">
+    <row r="81" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -4360,7 +3997,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
     </row>
-    <row r="82" spans="3:17" ht="16.5">
+    <row r="82" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -4373,7 +4010,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
     </row>
-    <row r="83" spans="3:17" ht="16.5">
+    <row r="83" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
@@ -4386,7 +4023,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="3:17" ht="16.5">
+    <row r="84" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
@@ -4397,7 +4034,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="3:17" ht="16.5">
+    <row r="85" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
@@ -4408,7 +4045,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="3:17" ht="16.5">
+    <row r="86" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -4419,7 +4056,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="3:17" ht="16.5">
+    <row r="87" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -4430,7 +4067,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="3:17" ht="16.5">
+    <row r="88" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -4441,7 +4078,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="3:17" ht="16.5">
+    <row r="89" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -4452,7 +4089,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="3:17" ht="16.5">
+    <row r="90" spans="3:17" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -4486,46 +4123,46 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="22" customWidth="1"/>
-    <col min="9" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="16" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="22" customWidth="1"/>
+    <col min="9" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>13</v>
@@ -4534,13 +4171,13 @@
         <v>14</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -4548,7 +4185,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
@@ -4599,18 +4236,18 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E3" s="9">
         <v>154652</v>
@@ -4622,10 +4259,10 @@
         <v>154670</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J3" s="19">
         <v>277498</v>
@@ -4643,7 +4280,7 @@
         <v>181577</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -4651,18 +4288,18 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E4" s="22">
         <v>154653</v>
@@ -4674,10 +4311,10 @@
         <v>154670</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J4" s="19">
         <v>277498</v>
@@ -4695,7 +4332,7 @@
         <v>181579</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -4703,18 +4340,18 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E5" s="22">
         <v>154654</v>
@@ -4726,10 +4363,10 @@
         <v>154670</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J5" s="19">
         <v>277498</v>
@@ -4747,7 +4384,7 @@
         <v>181581</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -4755,18 +4392,18 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E6" s="22">
         <v>154655</v>
@@ -4778,10 +4415,10 @@
         <v>154670</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J6" s="19">
         <v>277498</v>
@@ -4799,7 +4436,7 @@
         <v>181583</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4807,18 +4444,18 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E7" s="22">
         <v>154656</v>
@@ -4830,10 +4467,10 @@
         <v>154670</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J7" s="19">
         <v>277498</v>
@@ -4851,7 +4488,7 @@
         <v>181585</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -4859,33 +4496,33 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="G8" s="2">
         <v>154670</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J8" s="19">
         <v>277498</v>
@@ -4900,10 +4537,10 @@
         <v>154521</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -4911,33 +4548,33 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="G9" s="2">
         <v>154670</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J9" s="19">
         <v>277498</v>
@@ -4955,7 +4592,7 @@
         <v>181589</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -4963,33 +4600,33 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="G10" s="2">
         <v>154670</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="J10" s="19">
         <v>277498</v>
@@ -5001,13 +4638,13 @@
         <v>138933</v>
       </c>
       <c r="M10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="O10" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -5015,7 +4652,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5037,9 +4674,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="9">
         <v>316171</v>
@@ -5048,7 +4685,7 @@
         <v>316172</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="9">
         <v>154652</v>
@@ -5063,7 +4700,7 @@
         <v>316347</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" s="19">
         <v>277498</v>
@@ -5081,7 +4718,7 @@
         <v>181577</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -5089,9 +4726,9 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="9">
         <v>316171</v>
@@ -5100,7 +4737,7 @@
         <v>316172</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="22">
         <v>154653</v>
@@ -5115,7 +4752,7 @@
         <v>316347</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" s="19">
         <v>277498</v>
@@ -5133,7 +4770,7 @@
         <v>181579</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -5141,9 +4778,9 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="9">
         <v>316171</v>
@@ -5152,7 +4789,7 @@
         <v>316172</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="22">
         <v>154654</v>
@@ -5167,7 +4804,7 @@
         <v>316347</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J14" s="19">
         <v>277498</v>
@@ -5185,7 +4822,7 @@
         <v>181581</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -5193,9 +4830,9 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="9">
         <v>316171</v>
@@ -5204,7 +4841,7 @@
         <v>316172</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="22">
         <v>154655</v>
@@ -5219,7 +4856,7 @@
         <v>316347</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" s="19">
         <v>277498</v>
@@ -5237,7 +4874,7 @@
         <v>181583</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -5245,9 +4882,9 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="9">
         <v>316171</v>
@@ -5256,7 +4893,7 @@
         <v>316172</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="22">
         <v>154656</v>
@@ -5271,7 +4908,7 @@
         <v>316347</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" s="19">
         <v>277498</v>
@@ -5289,7 +4926,7 @@
         <v>181585</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -5297,9 +4934,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="9">
         <v>316171</v>
@@ -5308,7 +4945,7 @@
         <v>316172</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="22">
         <v>316217</v>
@@ -5323,7 +4960,7 @@
         <v>316347</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J17" s="19">
         <v>277498</v>
@@ -5335,25 +4972,25 @@
         <v>316334</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N17" s="24">
         <v>316267</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="9">
         <v>316171</v>
@@ -5362,13 +4999,13 @@
         <v>316172</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="G18" s="2">
         <v>154670</v>
@@ -5377,7 +5014,7 @@
         <v>316347</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J18" s="19">
         <v>277498</v>
@@ -5392,10 +5029,10 @@
         <v>154521</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -5403,9 +5040,9 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="9">
         <v>316171</v>
@@ -5414,13 +5051,13 @@
         <v>316172</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="G19" s="2">
         <v>154670</v>
@@ -5429,7 +5066,7 @@
         <v>316347</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J19" s="19">
         <v>277498</v>
@@ -5441,25 +5078,25 @@
         <v>316334</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N19" s="24">
         <v>316269</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="9">
         <v>316171</v>
@@ -5468,13 +5105,13 @@
         <v>316172</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="G20" s="2">
         <v>154670</v>
@@ -5483,7 +5120,7 @@
         <v>316347</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J20" s="19">
         <v>277498</v>
@@ -5501,7 +5138,7 @@
         <v>181589</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -5509,17 +5146,17 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33"/>
     </row>
   </sheetData>
@@ -5543,6 +5180,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0664017650A5947BA1B6BB62DDE1756" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f9c0f626e79dc52133e521b8706fa1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4e246d5-064a-42ac-8fae-0696c9fa62dd" xmlns:ns3="ffa00a1b-1412-4262-83a1-58f2742580e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f282b496f7fa320b6d535d24d0a2767" ns2:_="" ns3:_="">
     <xsd:import namespace="e4e246d5-064a-42ac-8fae-0696c9fa62dd"/>
@@ -5797,25 +5443,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8096B9EB-C765-47DD-80D1-2FC31CB7CC15}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8096B9EB-C765-47DD-80D1-2FC31CB7CC15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e4e246d5-064a-42ac-8fae-0696c9fa62dd"/>
+    <ds:schemaRef ds:uri="ffa00a1b-1412-4262-83a1-58f2742580e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2BE353-AB0C-4465-9ED9-33CDB1C9B765}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE34B71-097C-4E9D-B2B3-73933A0BE98F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE34B71-097C-4E9D-B2B3-73933A0BE98F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2BE353-AB0C-4465-9ED9-33CDB1C9B765}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e4e246d5-064a-42ac-8fae-0696c9fa62dd"/>
+    <ds:schemaRef ds:uri="ffa00a1b-1412-4262-83a1-58f2742580e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/cross_og_netti.xlsx
+++ b/src/main/resources/cross_og_netti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oles/repos/hm-delbestilling-api/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E70138-3793-7542-89EF-522C5FED9C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BEFEA-CF5D-2B49-A7FF-482E60391970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8560" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{93017409-3C97-4F9D-B6EF-863303C7C1B9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="187">
   <si>
     <t>Deler til kommunale oppdrag Cross 6</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>Netti V sb55</t>
+  </si>
+  <si>
+    <t>220485</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1146,7 @@
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1312,8 +1315,8 @@
       <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="7">
-        <v>220485</v>
+      <c r="J5" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
@@ -4109,7 +4112,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M5:P7 M58:N64 M55:N55 P55 M56:P57 P58:P64 M8:P54 E5:F64 H16:I64 G16:G64 J16:L64 H5:I15 G5:G15 J5:L15" numberStoredAsText="1"/>
+    <ignoredError sqref="M5:P7 M58:N64 M55:N55 P55 M56:P57 P58:P64 M8:P54 E5:F64 H16:I64 G16:G64 J16:L64 H5:I15 G5:G15 J6:L15 K5:L5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
